--- a/VCarve Pro V11.0/EasyTools/EasyCabinetMaker/Documents/Blum.xlsx
+++ b/VCarve Pro V11.0/EasyTools/EasyCabinetMaker/Documents/Blum.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Vectric Files\Gadgets\VCarve Pro V11.0\EasyTools\EasyCabinetMaker\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB5BC43A-CFE1-47BC-B5F2-9D12B2BC4BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CB51D0-778B-4D9A-88AA-6A70636D551A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="4780" windowWidth="28800" windowHeight="15460"/>
+    <workbookView xWindow="8720" yWindow="4780" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blum 430E" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
   <si>
     <t>230M6500</t>
   </si>
@@ -451,12 +451,18 @@
   </si>
   <si>
     <t>3 (1/8")</t>
+  </si>
+  <si>
+    <t>Manufacture</t>
+  </si>
+  <si>
+    <t>Blum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1014,23 +1020,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1043,6 +1038,12 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1397,320 +1398,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1720,313 +1761,343 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="A1:I10"/>
+      <selection activeCell="J10" sqref="A2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2036,305 +2107,330 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>109</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>142</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>140</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>132</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
       </c>
       <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>108</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>109</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>142</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>140</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>132</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>100</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>110</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>113</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>142</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>140</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>132</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
         <v>119</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>110</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>111</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>112</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>108</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>113</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>142</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>140</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>132</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>115</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>117</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>118</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>142</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>140</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>136</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>117</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>122</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>123</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>108</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>125</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>142</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>140</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>136</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>124</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>126</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>127</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>128</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>108</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>129</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>142</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>140</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>137</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>138</v>
       </c>
     </row>
